--- a/biology/Zoologie/Danaus_affinis/Danaus_affinis.xlsx
+++ b/biology/Zoologie/Danaus_affinis/Danaus_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danaus affinis est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Danainae, du genre Danaus et du sous-genre Salatura.
 </t>
@@ -511,14 +523,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Danaus affinis a été nommé par Fabricius en 1775.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danaus affinis a été nommé par Fabricius en 1775.
 Synonymes : très nombreux dont Papilio affinis Fabricius, 1775; Papilio philene Stoll, 1782; Salatura nigrita.
-Noms vernaculaires
-Danaus affinis se nomme en anglais Malay tiger, mangrove tiger ou swamp tiger.
-Sous-espèces
-Danaus affinis affinis en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danaus affinis se nomme en anglais Malay tiger, mangrove tiger ou swamp tiger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Danaus affinis affinis en Australie.
 Danaus affinis abigar Eschscholtz, 1821 ; aux Philippines.
 Danaus affinis albistriga Talbot, 1943 ; en Nouvelle-Calédonie.
 Danaus affinis affinoides Fruhstorfer, 1899 ;
@@ -538,72 +622,7 @@
 Danaus affinis sabrona (Talbot, 1943)
 Danaus affinis subnigra (Joicey &amp; Talbot, 1922)
 Danaus affinis taruna Fruhstorfer, 1899 ;
-Danaus affinis tualana Talbot, 1943 [1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Danaus_affinis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon noir marqué de nombreuses taches ovales blanches, formant une plage blanche dans la partie basale. Le verso a une ornementation identique aux antérieures et de plus aux postérieures une double ligne submarginale de points blancs et des taches orange.
-Chenille
-La chenille est marron annelée de blanc et tachetée de jaune[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Danaus_affinis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes sont des Tylophora, Cynanchum carnosumum, Cynanchum ovalifolium, Ischnostemma selangorica et Vincetoxicum carnosum[1].
-</t>
+Danaus affinis tualana Talbot, 1943 .</t>
         </is>
       </c>
     </row>
@@ -628,15 +647,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon noir marqué de nombreuses taches ovales blanches, formant une plage blanche dans la partie basale. Le verso a une ornementation identique aux antérieures et de plus aux postérieures une double ligne submarginale de points blancs et des taches orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est marron annelée de blanc et tachetée de jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Tylophora, Cynanchum carnosumum, Cynanchum ovalifolium, Ischnostemma selangorica et Vincetoxicum carnosum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danaus affinis est présent dans le sud-est de l'Asie, en Thaïlande, Malaisie, Philippines et dans toute l'Océanie dont les Nouvelles-Hebrides, l'Australie et la Nouvelle-Calédonie[1].
-Biotope
-Protection
-La sous-espèce  Danaus affinis jimiensis Miller et Miller, 1978 qui réside en Papouasie-Nouvelle-Guinée est déclarée vulnérable[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danaus affinis est présent dans le sud-est de l'Asie, en Thaïlande, Malaisie, Philippines et dans toute l'Océanie dont les Nouvelles-Hebrides, l'Australie et la Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_affinis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce  Danaus affinis jimiensis Miller et Miller, 1978 qui réside en Papouasie-Nouvelle-Guinée est déclarée vulnérable.
 </t>
         </is>
       </c>
